--- a/storage/durgesh/Graseed_grains2.xlsx
+++ b/storage/durgesh/Graseed_grains2.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
